--- a/w4/experiments.xlsx
+++ b/w4/experiments.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526EB57-EF42-4053-93AC-8F0E8CA2A728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D842C-5AD6-4637-91AA-2EB5BF66542E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="eficientnet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Dataset</t>
   </si>
@@ -137,6 +138,18 @@
   <si>
     <t>OneCycle 
 - lr: 2*1e-2</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>60 epochs</t>
+  </si>
+  <si>
+    <t>200 epochs</t>
   </si>
 </sst>
 </file>
@@ -209,13 +222,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -226,6 +236,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -508,23 +522,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
@@ -536,403 +550,403 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3">
-        <v>16</v>
-      </c>
-      <c r="J9" s="3">
-        <v>16</v>
-      </c>
-      <c r="K9" s="3">
-        <v>16</v>
-      </c>
-      <c r="L9" s="3">
-        <v>16</v>
-      </c>
-      <c r="M9" s="3">
-        <v>16</v>
-      </c>
-      <c r="N9" s="3">
-        <v>16</v>
-      </c>
-      <c r="O9" s="3">
-        <v>16</v>
-      </c>
-      <c r="P9" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="3"/>
+      <c r="B9" s="2">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2">
+        <v>16</v>
+      </c>
+      <c r="N9" s="2">
+        <v>16</v>
+      </c>
+      <c r="O9" s="2">
+        <v>16</v>
+      </c>
+      <c r="P9" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>76.58</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>78.19</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>78.08</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>77.87</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>76.650000000000006</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>77.87</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>80</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>79.099999999999994</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>77.63</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>78.7</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>80.040000000000006</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>80.45</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>78.64</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>80.98</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -944,4 +958,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764691C7-2A66-4AC1-B3E7-538D47869F61}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>74.56</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="E4" s="6">
+        <v>78.39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>74.75</v>
+      </c>
+      <c r="E5" s="6">
+        <v>79.39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>78.17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>